--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220513_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220513_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="255">
   <si>
     <t>사이트</t>
   </si>
@@ -722,9 +722,6 @@
   </si>
   <si>
     <t>SOURCE MUSIC</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SONY MUSIC</t>
@@ -2101,7 +2098,7 @@
         <v>179</v>
       </c>
       <c r="G37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s">
         <v>233</v>
@@ -2127,7 +2124,7 @@
         <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
         <v>233</v>
@@ -2179,7 +2176,7 @@
         <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H40" t="s">
         <v>233</v>
@@ -2205,7 +2202,7 @@
         <v>182</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
         <v>233</v>
@@ -2231,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
         <v>233</v>
@@ -2283,7 +2280,7 @@
         <v>183</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H44" t="s">
         <v>233</v>
@@ -2361,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H47" t="s">
         <v>233</v>
@@ -2387,7 +2384,7 @@
         <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
         <v>233</v>
@@ -2465,7 +2462,7 @@
         <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" t="s">
         <v>233</v>
@@ -2517,7 +2514,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
         <v>233</v>
@@ -2569,7 +2566,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s">
         <v>233</v>
@@ -2621,7 +2618,7 @@
         <v>189</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
         <v>233</v>
@@ -2647,10 +2644,10 @@
         <v>190</v>
       </c>
       <c r="G58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,7 +2670,7 @@
         <v>185</v>
       </c>
       <c r="G59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
         <v>233</v>
@@ -2751,10 +2748,10 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2803,7 +2800,7 @@
         <v>193</v>
       </c>
       <c r="G64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
         <v>233</v>
@@ -2829,7 +2826,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H65" t="s">
         <v>233</v>
@@ -2881,7 +2878,7 @@
         <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H67" t="s">
         <v>233</v>
@@ -2907,7 +2904,7 @@
         <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H68" t="s">
         <v>233</v>
@@ -2985,7 +2982,7 @@
         <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
         <v>233</v>
@@ -3063,7 +3060,7 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
         <v>233</v>
@@ -3089,7 +3086,7 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
         <v>233</v>
@@ -3141,7 +3138,7 @@
         <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
         <v>233</v>
@@ -3167,7 +3164,7 @@
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H78" t="s">
         <v>233</v>
@@ -3193,7 +3190,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H79" t="s">
         <v>233</v>
@@ -3219,7 +3216,7 @@
         <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
         <v>233</v>
@@ -3245,7 +3242,7 @@
         <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
         <v>233</v>
@@ -3271,10 +3268,10 @@
         <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3297,7 +3294,7 @@
         <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H83" t="s">
         <v>233</v>
@@ -3375,7 +3372,7 @@
         <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H86" t="s">
         <v>233</v>
@@ -3401,7 +3398,7 @@
         <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H87" t="s">
         <v>233</v>
@@ -3505,7 +3502,7 @@
         <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H91" t="s">
         <v>233</v>
@@ -3531,7 +3528,7 @@
         <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H92" t="s">
         <v>233</v>
@@ -3557,7 +3554,7 @@
         <v>184</v>
       </c>
       <c r="G93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H93" t="s">
         <v>233</v>
@@ -3713,7 +3710,7 @@
         <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H99" t="s">
         <v>233</v>
